--- a/report/Budget wcl Summery_mh_area wise.xlsx
+++ b/report/Budget wcl Summery_mh_area wise.xlsx
@@ -15,6 +15,7 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,13 +41,13 @@
     <t xml:space="preserve">EXISTING AS ON 01.02.17</t>
   </si>
   <si>
-    <t xml:space="preserve">PROPOSED  FOR 2017-18</t>
+    <t xml:space="preserve">PROPOSED  SANCTION FOR 2017-18</t>
   </si>
   <si>
     <t xml:space="preserve">EXECUTIVES</t>
   </si>
   <si>
-    <t xml:space="preserve">SUBORDINATE ENGGRS</t>
+    <t xml:space="preserve">SUBORDINATE ENGINEERS</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL (EXECUTIVES)</t>
@@ -88,7 +89,7 @@
     <t xml:space="preserve">CENTRAL UNITS</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL NON-EXECUTIVES)</t>
+    <t xml:space="preserve">TOTAL (NON-EXECUTIVES)</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL (WCL)</t>
@@ -653,8 +654,8 @@
   </sheetPr>
   <dimension ref="C3:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C5" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C9" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -686,7 +687,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="44.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="62.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
@@ -912,7 +913,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="65" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/report/Budget wcl Summery_mh_area wise.xlsx
+++ b/report/Budget wcl Summery_mh_area wise.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">WESTERN COALFIELDS LIMITED </t>
   </si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">CENTRAL UNITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL (NON-EXECUTIVES)</t>
@@ -654,8 +658,8 @@
   </sheetPr>
   <dimension ref="C3:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C9" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,7 +755,7 @@
         <v>6948</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>6817</v>
+        <v>6792</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -762,7 +766,7 @@
         <v>4627</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>4644</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -773,7 +777,7 @@
         <v>3650</v>
       </c>
       <c r="E14" s="11" t="n">
-        <v>3501</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -784,7 +788,7 @@
         <v>3522</v>
       </c>
       <c r="E15" s="11" t="n">
-        <v>2558</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -795,7 +799,7 @@
         <v>2367</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>2095</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -806,7 +810,7 @@
         <v>7553</v>
       </c>
       <c r="E17" s="11" t="n">
-        <v>7473</v>
+        <v>7446</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -817,7 +821,7 @@
         <v>2102</v>
       </c>
       <c r="E18" s="11" t="n">
-        <v>2239</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -828,7 +832,7 @@
         <v>6177</v>
       </c>
       <c r="E19" s="11" t="n">
-        <v>5583</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -839,7 +843,7 @@
         <v>3885</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>3769</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -850,7 +854,7 @@
         <v>3274</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>3145</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -861,7 +865,7 @@
         <v>509</v>
       </c>
       <c r="E22" s="11" t="n">
-        <v>627</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -871,13 +875,13 @@
       <c r="D23" s="10" t="n">
         <v>471</v>
       </c>
-      <c r="E23" s="11" t="n">
-        <v>469</v>
+      <c r="E23" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="13" t="n">
         <f aca="false">SUM(D12:D23)</f>
@@ -885,7 +889,7 @@
       </c>
       <c r="E24" s="14" t="n">
         <f aca="false">SUM(E12:E23)</f>
-        <v>42920</v>
+        <v>42369</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -895,7 +899,7 @@
     </row>
     <row r="26" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="20" t="n">
         <f aca="false">D10+D24</f>
@@ -903,7 +907,7 @@
       </c>
       <c r="E26" s="21" t="n">
         <f aca="false">E10+E24</f>
-        <v>45664</v>
+        <v>45113</v>
       </c>
     </row>
   </sheetData>

--- a/report/Budget wcl Summery_mh_area wise.xlsx
+++ b/report/Budget wcl Summery_mh_area wise.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Sheet1!$B$3:$E$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t xml:space="preserve">WESTERN COALFIELDS LIMITED </t>
   </si>
@@ -90,13 +92,16 @@
     <t xml:space="preserve">CENTRAL UNITS</t>
   </si>
   <si>
-    <t xml:space="preserve">N </t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTAL (NON-EXECUTIVES)</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL (WCL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPOSED BY AREA 2017-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -106,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,6 +249,14 @@
     <font>
       <b val="true"/>
       <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -474,7 +487,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -561,6 +574,38 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -658,8 +703,8 @@
   </sheetPr>
   <dimension ref="C3:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -875,13 +920,13 @@
       <c r="D23" s="10" t="n">
         <v>471</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>20</v>
+      <c r="E23" s="11" t="n">
+        <v>469</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="13" t="n">
         <f aca="false">SUM(D12:D23)</f>
@@ -889,7 +934,7 @@
       </c>
       <c r="E24" s="14" t="n">
         <f aca="false">SUM(E12:E23)</f>
-        <v>42369</v>
+        <v>42838</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -899,7 +944,7 @@
     </row>
     <row r="26" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="20" t="n">
         <f aca="false">D10+D24</f>
@@ -907,7 +952,7 @@
       </c>
       <c r="E26" s="21" t="n">
         <f aca="false">E10+E24</f>
-        <v>45113</v>
+        <v>45582</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +962,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="65" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -930,17 +975,325 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="24.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" s="26" customFormat="true" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>6948</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>8988</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>4627</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>6174</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>3650</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <v>5044</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>3522</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>3529</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>2367</v>
+      </c>
+      <c r="C13" s="14" t="n">
+        <v>2821</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>7553</v>
+      </c>
+      <c r="C14" s="14" t="n">
+        <v>9612</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>2102</v>
+      </c>
+      <c r="C15" s="14" t="n">
+        <v>2890</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>6177</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <v>7121</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>3885</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>4571</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>3274</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>3725</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>509</v>
+      </c>
+      <c r="C19" s="14" t="n">
+        <v>757</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>471</v>
+      </c>
+      <c r="C20" s="14" t="n">
+        <v>541</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="n">
+        <f aca="false">SUM(B9:B20)</f>
+        <v>45085</v>
+      </c>
+      <c r="C21" s="14" t="n">
+        <f aca="false">SUM(C9:C20)</f>
+        <v>55773</v>
+      </c>
+      <c r="D21" s="14" t="n">
+        <f aca="false">SUM(D9:D20)</f>
+        <v>42838</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>2362</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="11" t="n">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>199</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="11" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="13" t="n">
+        <f aca="false">SUM(B23:B24)</f>
+        <v>2561</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="n">
+        <f aca="false">SUM(D23:D24)</f>
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="20" t="n">
+        <f aca="false">B25+B21</f>
+        <v>47646</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20" t="n">
+        <f aca="false">D25+D21</f>
+        <v>45582</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
